--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H2">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>1177.557947293513</v>
+        <v>26.48440618147522</v>
       </c>
       <c r="R2">
-        <v>10598.02152564162</v>
+        <v>238.359655633277</v>
       </c>
       <c r="S2">
-        <v>0.3249592855929326</v>
+        <v>0.01956186634258972</v>
       </c>
       <c r="T2">
-        <v>0.3249592855929326</v>
+        <v>0.01956186634258972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H3">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>182.4170047106033</v>
+        <v>7.682037337396111</v>
       </c>
       <c r="R3">
-        <v>1641.75304239543</v>
+        <v>69.13833603656499</v>
       </c>
       <c r="S3">
-        <v>0.05033985772590167</v>
+        <v>0.005674093147613702</v>
       </c>
       <c r="T3">
-        <v>0.05033985772590167</v>
+        <v>0.005674093147613701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H4">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>172.4387168746293</v>
+        <v>9.720388575888334</v>
       </c>
       <c r="R4">
-        <v>1551.948451871664</v>
+        <v>87.48349718299501</v>
       </c>
       <c r="S4">
-        <v>0.04758624607216406</v>
+        <v>0.007179656618186333</v>
       </c>
       <c r="T4">
-        <v>0.04758624607216406</v>
+        <v>0.007179656618186332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
         <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>1204.148784225629</v>
+        <v>643.097779771349</v>
       </c>
       <c r="R5">
-        <v>10837.33905803066</v>
+        <v>5787.880017942142</v>
       </c>
       <c r="S5">
-        <v>0.3322973018601055</v>
+        <v>0.475003771158844</v>
       </c>
       <c r="T5">
-        <v>0.3322973018601055</v>
+        <v>0.475003771158844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
         <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
-        <v>186.5362252016656</v>
+        <v>186.5362252016655</v>
       </c>
       <c r="R6">
         <v>1678.82602681499</v>
       </c>
       <c r="S6">
-        <v>0.05147659919246977</v>
+        <v>0.137779064421634</v>
       </c>
       <c r="T6">
-        <v>0.05147659919246977</v>
+        <v>0.137779064421634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
         <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>176.3326142507503</v>
+        <v>236.0317338751967</v>
       </c>
       <c r="R7">
-        <v>1586.993528256752</v>
+        <v>2124.28560487677</v>
       </c>
       <c r="S7">
-        <v>0.04866080729645433</v>
+        <v>0.1743373515357828</v>
       </c>
       <c r="T7">
-        <v>0.04866080729645432</v>
+        <v>0.1743373515357828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H8">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I8">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J8">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>402.8726766021145</v>
+        <v>147.4439687535356</v>
       </c>
       <c r="R8">
-        <v>3625.85408941903</v>
+        <v>1326.995718781821</v>
       </c>
       <c r="S8">
-        <v>0.1111768787892218</v>
+        <v>0.1089048094948444</v>
       </c>
       <c r="T8">
-        <v>0.1111768787892217</v>
+        <v>0.1089048094948444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H9">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I9">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J9">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>62.40952057978277</v>
+        <v>42.76743323513833</v>
       </c>
       <c r="R9">
-        <v>561.6856852180449</v>
+        <v>384.906899116245</v>
       </c>
       <c r="S9">
-        <v>0.01722255220510909</v>
+        <v>0.03158880765643072</v>
       </c>
       <c r="T9">
-        <v>0.01722255220510909</v>
+        <v>0.03158880765643071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H10">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I10">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J10">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>58.99569322833511</v>
+        <v>54.115340915515</v>
       </c>
       <c r="R10">
-        <v>530.961239055016</v>
+        <v>487.038068239635</v>
       </c>
       <c r="S10">
-        <v>0.0162804712656413</v>
+        <v>0.03997057962407431</v>
       </c>
       <c r="T10">
-        <v>0.01628047126564129</v>
+        <v>0.03997057962407431</v>
       </c>
     </row>
   </sheetData>
